--- a/textToOps/data/processed/units.xlsx
+++ b/textToOps/data/processed/units.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heejinchae/Documents/github/Text2GeoAn/textToOps/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0A2FE3-C032-AD46-99AB-7435A1B62A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68AB42E-0550-9B49-9F51-45CC675CF92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{28EAAB28-9B20-3D40-8466-CD2F64D1E5AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>km</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>unitN</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>foot</t>
   </si>
 </sst>
 </file>
@@ -498,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1DBA88-94D6-0D4F-9D8A-F80A228464A5}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B28"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +557,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -559,7 +565,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -567,7 +573,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -575,47 +581,47 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -623,7 +629,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -631,7 +637,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -639,7 +645,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -647,7 +653,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -655,23 +661,23 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -679,7 +685,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -687,7 +693,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -695,7 +701,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -703,7 +709,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -711,7 +717,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -719,7 +725,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -727,9 +733,25 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
     </row>

--- a/textToOps/data/processed/units.xlsx
+++ b/textToOps/data/processed/units.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heejinchae/Documents/github/Text2GeoAn/textToOps/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68AB42E-0550-9B49-9F51-45CC675CF92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCF3108-51AC-DE4D-A5E1-6847FE127268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{28EAAB28-9B20-3D40-8466-CD2F64D1E5AF}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="19200" windowHeight="14860" xr2:uid="{28EAAB28-9B20-3D40-8466-CD2F64D1E5AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>km</t>
   </si>
@@ -147,6 +147,45 @@
   </si>
   <si>
     <t>foot</t>
+  </si>
+  <si>
+    <t>montInYear</t>
+  </si>
+  <si>
+    <t>january</t>
+  </si>
+  <si>
+    <t>february</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>june</t>
+  </si>
+  <si>
+    <t>july</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>september</t>
+  </si>
+  <si>
+    <t>october</t>
+  </si>
+  <si>
+    <t>november</t>
+  </si>
+  <si>
+    <t>december</t>
   </si>
 </sst>
 </file>
@@ -504,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1DBA88-94D6-0D4F-9D8A-F80A228464A5}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,8 +794,105 @@
         <v>34</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>